--- a/laravel/public/attachments/06_MyFloridaMarketPlace.xlsx
+++ b/laravel/public/attachments/06_MyFloridaMarketPlace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bidsportal_new\laravel\public\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C089895-764D-434A-BE01-B10A89D2A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3550608-AC77-4711-8BE1-85391C33B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>SL No</t>
   </si>
@@ -88,12 +88,6 @@
     <t>Request For Proposal</t>
   </si>
   <si>
-    <t>2025-01-14</t>
-  </si>
-  <si>
-    <t>2025-02-04</t>
-  </si>
-  <si>
     <t>Department of Agriculture and Consumer Services (FDACS)</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
   </si>
   <si>
     <t>058 - Construction and Management Services</t>
-  </si>
-  <si>
-    <t>ITB-11417</t>
   </si>
   <si>
     <t>Runway 24/25 Timber Sale</t>
@@ -133,13 +124,7 @@
     <t>Advertisement.pdf, Map 2.pdf</t>
   </si>
   <si>
-    <t>2025-03-14</t>
-  </si>
-  <si>
     <t>Request for Proposals</t>
-  </si>
-  <si>
-    <t>RFP-11405</t>
   </si>
   <si>
     <t>Infrastructure Impact Study</t>
@@ -223,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -231,6 +216,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +522,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,11 +611,11 @@
       <c r="A2">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+      <c r="B2" s="3">
+        <v>45699</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45751</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -637,38 +623,35 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
       <c r="K2">
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
       </c>
       <c r="S2" t="s">
         <v>20</v>
@@ -678,47 +661,44 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+      <c r="B3" s="3">
+        <v>45699</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45751</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
